--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Bill_WithBene.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Bill_WithBene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
-    <t>status_query2</t>
-  </si>
-  <si>
     <t>Category_Value</t>
   </si>
   <si>
@@ -122,30 +116,12 @@
     <t>is_partial_payment_query</t>
   </si>
   <si>
-    <t>When valid bill details are provided 06124110095500</t>
-  </si>
-  <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>Electricity Bill Payment</t>
   </si>
   <si>
-    <t>GEPCO</t>
-  </si>
-  <si>
-    <t>06124110095500</t>
-  </si>
-  <si>
     <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.BILLING_MONTH DESC</t>
   </si>
   <si>
-    <t>GEPCO001</t>
-  </si>
-  <si>
     <t>pakistan2</t>
   </si>
   <si>
@@ -170,18 +146,12 @@
     <t>QAT_BPS</t>
   </si>
   <si>
-    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
-  </si>
-  <si>
     <t>RETAIL</t>
   </si>
   <si>
     <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
   </si>
   <si>
-    <t>office</t>
-  </si>
-  <si>
     <t>SELECT CC.IS_RECURRING_PAYMENT FROM BPS_COMPANY_CHANNEL CC WHERE CC.COMPANY_CODE = '{Company_Code}' AND CC.CHANNEL_CODE = 'MB'</t>
   </si>
   <si>
@@ -213,19 +183,139 @@
   </si>
   <si>
     <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 0</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 1</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 2</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 3</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 4</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 5</t>
+  </si>
+  <si>
+    <t>K-ELECTRIC</t>
+  </si>
+  <si>
+    <t>0400000064511</t>
+  </si>
+  <si>
+    <t>KESC0001</t>
+  </si>
+  <si>
+    <t>06217900745803</t>
+  </si>
+  <si>
+    <t>Electricity only Pass</t>
+  </si>
+  <si>
+    <t>Water / Sanitation Bill Payment</t>
+  </si>
+  <si>
+    <t>KWSB</t>
+  </si>
+  <si>
+    <t>65009121600066</t>
+  </si>
+  <si>
+    <t>KWSB0001</t>
+  </si>
+  <si>
+    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>Water Pass and OTP</t>
+  </si>
+  <si>
+    <t>Gas Bill Payment</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>0003950000</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>Gas Only OTP</t>
+  </si>
+  <si>
+    <t>Landline Bill Payment</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>1756155</t>
+  </si>
+  <si>
+    <t>SCO00001</t>
+  </si>
+  <si>
+    <t>Landline No Pass OTP</t>
+  </si>
+  <si>
+    <t>0318660000</t>
+  </si>
+  <si>
+    <t>max amount 5 lac</t>
+  </si>
+  <si>
+    <t>65009121500021</t>
+  </si>
+  <si>
+    <t>Max amount 10</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity where only pass is required MngSch_Bill_Bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where pass and OTP both are required MngSch_Bill_Bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas where only OTP is required MngSch_Bill_Bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline where OTP and pass NOT required MngSch_Bill_Bene</t>
+  </si>
+  <si>
+    <t>When valid bill details Gas max amount 5 lac only OTP MngSch_Bill_Bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where pass and OTP max amount 10 MngSch_Bill_Bene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,17 +338,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -534,248 +643,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="144.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="79" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="129.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="123.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="137.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="144.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="87.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="89.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="139.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="101.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="129.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="123.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="137.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="78.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="139.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="2">
+        <v>500000</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1">
-        <v>12345680</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="W7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Z7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AE7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
+      <c r="AF7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>